--- a/Oklahoma/WaterAllocation/OK_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Oklahoma/WaterAllocation/OK_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oklahoma\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A45152A-E26B-4CD8-95B3-5E1EE16283BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34532A9C-B0D8-4720-877B-B1951AB381EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="289">
-  <si>
-    <t>AllocationAmount</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="295">
   <si>
     <t>Name</t>
   </si>
@@ -311,9 +308,6 @@
     <t>AllocationCropDutyAmount</t>
   </si>
   <si>
-    <t>AllocationMaximum</t>
-  </si>
-  <si>
     <t>PopulationServed</t>
   </si>
   <si>
@@ -770,9 +764,6 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>Rebecca Mitchell</t>
-  </si>
-  <si>
     <t>The source type(s) of the site-specific variable amount (e.g., surface water, groundwater, mixed sources, reuse, etc.).  Full list available here: http://vocabulary.westernstateswater.org/watersourcetype/.  Append here if needed.</t>
   </si>
   <si>
@@ -906,6 +897,33 @@
   </si>
   <si>
     <t>OBJECTID feels like a week entry.  May need to revisit this.</t>
+  </si>
+  <si>
+    <t>https://www.owrb.ok.gov/</t>
+  </si>
+  <si>
+    <t>David Hamilton</t>
+  </si>
+  <si>
+    <t>david.hamilton@owrb.ok.gov</t>
+  </si>
+  <si>
+    <t>PODorPOUSite</t>
+  </si>
+  <si>
+    <t>POD</t>
+  </si>
+  <si>
+    <t>AllocationFlow_CFS</t>
+  </si>
+  <si>
+    <t>AllocationVolume_AF</t>
+  </si>
+  <si>
+    <t>ExemptOfVolumeFlowPriority</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
 </sst>
 </file>
@@ -915,7 +933,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1133,6 +1151,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1605,7 +1638,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1648,8 +1681,9 @@
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1901,8 +1935,27 @@
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1936,6 +1989,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2273,49 +2327,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="72" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="72" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -2382,352 +2436,352 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>11</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="71">
         <v>0.5</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="96" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="63" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2771,380 +2825,380 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
       <c r="G3" s="32"/>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>16</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="17">
         <v>1</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="17">
         <v>10</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="17">
         <v>10</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3160,8 +3214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3188,354 +3242,354 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="18">
         <v>1</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>132</v>
+        <v>38</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>288</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>258</v>
+        <v>38</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>255</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J10" s="63" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>258</v>
+        <v>38</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>286</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3566,8 +3620,13 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A25">
     <sortCondition ref="A17:A25"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{3ED473B5-FD50-4618-A139-00022E2B0318}"/>
+    <hyperlink ref="E11" r:id="rId2" xr:uid="{C91A4DD1-187C-48F1-B976-F0044AF87776}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{C75D63B1-89AA-4633-AFEA-3F13752D3261}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3603,274 +3662,274 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F10" s="76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3892,10 +3951,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3922,631 +3981,659 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="80"/>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="80"/>
       <c r="I4" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="80"/>
       <c r="I6" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H7" s="82"/>
       <c r="I7" s="73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="79"/>
       <c r="I8" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="80"/>
       <c r="I9" s="18"/>
       <c r="J9" s="63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="80"/>
       <c r="I10" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="80"/>
       <c r="I11" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="73"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H12" s="80"/>
       <c r="I12" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H14" s="81"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="63" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="80"/>
       <c r="I15" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="80"/>
       <c r="I16" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="63" t="s">
-        <v>170</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>19</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="H18" s="79" t="s">
-        <v>288</v>
-      </c>
-      <c r="I18" s="18">
+        <v>38</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="80"/>
+      <c r="I18" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="H19" s="79" t="s">
+        <v>285</v>
+      </c>
+      <c r="I19" s="18">
         <v>3703994</v>
       </c>
-      <c r="J18" s="63" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J19" s="63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>240</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="74" t="s">
-        <v>261</v>
+        <v>38</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="H20" s="80"/>
       <c r="I20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="63" t="s">
-        <v>229</v>
+      <c r="J20" s="64" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>259</v>
+        <v>20</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G21" s="74" t="s">
+        <v>258</v>
       </c>
       <c r="H21" s="80"/>
       <c r="I21" s="18" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="J21" s="63" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="73" t="s">
-        <v>242</v>
+        <v>18</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>256</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="80"/>
-      <c r="I22" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="64" t="s">
-        <v>162</v>
+      <c r="I22" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="80"/>
+      <c r="I23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="64" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J26">
-    <sortCondition ref="A5:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J27">
+    <sortCondition ref="A5:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4555,10 +4642,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4585,665 +4672,665 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="36"/>
       <c r="H3" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="65">
         <v>50004</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="65">
         <v>43</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="65">
         <v>1</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="65">
         <v>39035</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="65">
         <v>63</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="65">
         <v>371091</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="65">
+        <v>5363</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="63" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="I14" s="18">
-        <v>1</v>
-      </c>
-      <c r="J14" s="63" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>21</v>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="65">
-        <v>5363</v>
-      </c>
-      <c r="J15" s="63" t="s">
-        <v>199</v>
+        <v>38</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J16" s="64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" s="64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>21</v>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="J18" s="63" t="s">
-        <v>233</v>
+        <v>38</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" s="63" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I21" s="18">
+        <v>5200</v>
+      </c>
+      <c r="J21" s="63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="84" t="s">
+        <v>274</v>
       </c>
       <c r="I22" s="18">
-        <v>5200</v>
+        <v>1</v>
       </c>
       <c r="J22" s="63" t="s">
         <v>198</v>
@@ -5251,66 +5338,66 @@
     </row>
     <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J23" s="63" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="18">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5318,674 +5405,700 @@
         <v>84</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>269</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J25" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="J26" s="63" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="37" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>274</v>
+        <v>38</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>159</v>
+        <v>38</v>
+      </c>
+      <c r="I27" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="J27" s="63" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="37" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="I28" s="68">
+        <v>44196</v>
       </c>
       <c r="J28" s="63" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29" s="68">
-        <v>44196</v>
+        <v>43831</v>
       </c>
       <c r="J29" s="63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>246</v>
+        <v>20</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>38</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="68">
-        <v>43831</v>
-      </c>
-      <c r="J30" s="63" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J30" s="64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>88</v>
+        <v>292</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="62" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J31" s="64" t="s">
-        <v>162</v>
+        <v>38</v>
+      </c>
+      <c r="I31" s="18">
+        <v>0</v>
+      </c>
+      <c r="J31" s="63" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32" s="63" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J33" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J34" s="63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J35" s="63" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" s="69">
         <v>43874</v>
       </c>
       <c r="J36" s="63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>242</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="88" t="s">
+        <v>293</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="34">
+        <v>0</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="70">
-        <v>33187</v>
-      </c>
-      <c r="J37" s="64" t="s">
-        <v>162</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H37" s="89"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="91"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="63" t="s">
-        <v>209</v>
+        <v>38</v>
+      </c>
+      <c r="I38" s="70">
+        <v>33187</v>
+      </c>
+      <c r="J38" s="64" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="37"/>
+        <v>38</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>38</v>
+      </c>
       <c r="I39" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J39" s="63" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>135</v>
+        <v>38</v>
+      </c>
+      <c r="H40" s="37"/>
+      <c r="I40" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="J40" s="63" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="64" t="s">
-        <v>162</v>
+        <v>38</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" s="63" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J42" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J44" s="64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" s="63" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J46" s="63" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J43" s="64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="J44" s="63" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J45" s="63" t="s">
-        <v>213</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J45">
-    <sortCondition ref="A14:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J46">
+    <sortCondition ref="A14:A46"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Oklahoma/WaterAllocation/OK_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Oklahoma/WaterAllocation/OK_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oklahoma\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34532A9C-B0D8-4720-877B-B1951AB381EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6995435A-A040-4C2A-AC87-52D6C1BC07C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="300">
   <si>
     <t>Name</t>
   </si>
@@ -821,9 +821,6 @@
     <t>Concatenate OK with a counter</t>
   </si>
   <si>
-    <t>‘Unspecified</t>
-  </si>
-  <si>
     <t>LATITUDE</t>
   </si>
   <si>
@@ -887,15 +884,6 @@
     <t>1) State allocation data consist of two input csv files concatenated together.</t>
   </si>
   <si>
-    <t>2) I don't Rebecca Mitchell is the state contact name.  That seems to have been a default for a few states inputs.</t>
-  </si>
-  <si>
-    <t>3) Using OBJECTID as SiteNativeID, which may not be the best approach.  Should revisit this later after OK verification.</t>
-  </si>
-  <si>
-    <t>OBJECTID</t>
-  </si>
-  <si>
     <t>OBJECTID feels like a week entry.  May need to revisit this.</t>
   </si>
   <si>
@@ -924,6 +912,33 @@
   </si>
   <si>
     <t>bit</t>
+  </si>
+  <si>
+    <t>OwnerClassificationCV</t>
+  </si>
+  <si>
+    <t>Army (USA)</t>
+  </si>
+  <si>
+    <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>"Unspecified"</t>
+  </si>
+  <si>
+    <t>*Use cusotm WaDE ID</t>
+  </si>
+  <si>
+    <t>POD or POU (depends on input</t>
+  </si>
+  <si>
+    <t>2) Need to double check with OK on if they have a site ID value.</t>
+  </si>
+  <si>
+    <t>3) POU data shares similar columns.  Will just concatenate data together into one large input file.</t>
+  </si>
+  <si>
+    <t>Area of use: https://home-owrb.opendata.arcgis.com/datasets/areas-of-use?geometry=-109.718%2C33.749%2C-87.404%2C36.886</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1698,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1953,6 +1968,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2312,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2330,7 +2348,7 @@
         <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2346,12 +2364,17 @@
         <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2359,17 +2382,17 @@
         <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -3214,8 +3237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3350,7 +3373,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -3382,7 +3405,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>38</v>
@@ -3542,7 +3565,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -3635,7 +3658,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3886,13 +3909,13 @@
         <v>38</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F9" s="73" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="17">
@@ -3916,7 +3939,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F10" s="76" t="s">
         <v>38</v>
@@ -3953,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4149,7 +4172,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H7" s="82"/>
       <c r="I7" s="73" t="s">
@@ -4293,7 +4316,7 @@
       <c r="E12" s="73"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H12" s="80"/>
       <c r="I12" s="22" t="s">
@@ -4323,7 +4346,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="18" t="s">
@@ -4353,7 +4376,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H14" s="81"/>
       <c r="I14" s="18">
@@ -4425,7 +4448,7 @@
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4437,7 +4460,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -4447,7 +4470,7 @@
       </c>
       <c r="H17" s="86"/>
       <c r="I17" s="87" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J17" s="86"/>
     </row>
@@ -4462,8 +4485,8 @@
       <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>260</v>
+      <c r="E18" s="61" t="s">
+        <v>294</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -4493,16 +4516,16 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="H19" s="79" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I19" s="18">
         <v>3703994</v>
@@ -4555,13 +4578,13 @@
         <v>20</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="74" t="s">
-        <v>258</v>
+      <c r="G21" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="H21" s="80"/>
       <c r="I21" s="18" t="s">
@@ -4642,10 +4665,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4966,7 +4989,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5030,7 +5053,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>38</v>
@@ -5068,7 +5091,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>38</v>
@@ -5306,7 +5329,7 @@
     </row>
     <row r="22" spans="1:10" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>69</v>
@@ -5327,7 +5350,7 @@
         <v>38</v>
       </c>
       <c r="H22" s="84" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I22" s="18">
         <v>1</v>
@@ -5356,7 +5379,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>38</v>
@@ -5388,7 +5411,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>38</v>
@@ -5420,7 +5443,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>38</v>
@@ -5452,7 +5475,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>38</v>
@@ -5580,7 +5603,7 @@
         <v>38</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>38</v>
@@ -5594,7 +5617,7 @@
     </row>
     <row r="31" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>69</v>
@@ -5612,7 +5635,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>38</v>
@@ -5644,7 +5667,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H32" s="38" t="s">
         <v>38</v>
@@ -5656,7 +5679,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>101</v>
       </c>
@@ -5688,7 +5711,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>98</v>
       </c>
@@ -5720,7 +5743,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="52" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" s="52" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>100</v>
       </c>
@@ -5752,7 +5775,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="52" t="s">
         <v>155</v>
       </c>
@@ -5784,12 +5807,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="88" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C37" s="54" t="s">
         <v>18</v>
@@ -5810,7 +5833,7 @@
       <c r="I37" s="90"/>
       <c r="J37" s="91"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>82</v>
       </c>
@@ -5842,7 +5865,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>90</v>
       </c>
@@ -5874,7 +5897,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>91</v>
       </c>
@@ -5904,7 +5927,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>99</v>
       </c>
@@ -5936,7 +5959,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>96</v>
       </c>
@@ -5968,50 +5991,50 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>89</v>
+        <v>291</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="D43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="92"/>
       <c r="H43" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="67" t="s">
-        <v>38</v>
+        <v>292</v>
       </c>
       <c r="J43" s="63" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>240</v>
@@ -6025,80 +6048,112 @@
       <c r="H44" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J44" s="64" t="s">
+      <c r="J45" s="64" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="52" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B46" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C46" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="56" t="s">
+      <c r="D46" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E46" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="J45" s="63" t="s">
+      <c r="J46" s="63" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="24" t="s">
+      <c r="D47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="F46" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="18" t="s">
+      <c r="F47" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="63" t="s">
+      <c r="J47" s="63" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J46">
-    <sortCondition ref="A14:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J47">
+    <sortCondition ref="A14:A47"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Oklahoma/WaterAllocation/OK_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Oklahoma/WaterAllocation/OK_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oklahoma\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6995435A-A040-4C2A-AC87-52D6C1BC07C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9491E961-A9A6-4B55-9DF1-44F461B562B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="300">
   <si>
     <t>Name</t>
   </si>
@@ -788,18 +788,9 @@
     <t>Water Allocation</t>
   </si>
   <si>
-    <t>OWRB_Water Rights</t>
-  </si>
-  <si>
     <t>Oklahoma Water Rights</t>
   </si>
   <si>
-    <t>OWRB_Allocation All</t>
-  </si>
-  <si>
-    <t>OWRB</t>
-  </si>
-  <si>
     <t>Oklahoma Water Resources Board</t>
   </si>
   <si>
@@ -812,15 +803,9 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Concatenate OK with a counter.</t>
-  </si>
-  <si>
     <t>WATER</t>
   </si>
   <si>
-    <t>Concatenate OK with a counter</t>
-  </si>
-  <si>
     <t>LATITUDE</t>
   </si>
   <si>
@@ -939,6 +924,21 @@
   </si>
   <si>
     <t>Area of use: https://home-owrb.opendata.arcgis.com/datasets/areas-of-use?geometry=-109.718%2C33.749%2C-87.404%2C36.886</t>
+  </si>
+  <si>
+    <t>OKwr_M1</t>
+  </si>
+  <si>
+    <t>OKwr_V1</t>
+  </si>
+  <si>
+    <t>OKwr_O1</t>
+  </si>
+  <si>
+    <t>OKwr_WS + counter</t>
+  </si>
+  <si>
+    <t>OKwr_S + counter</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1698,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1971,6 +1971,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2348,7 +2351,7 @@
         <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2356,7 +2359,7 @@
         <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2364,17 +2367,17 @@
         <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2382,17 +2385,17 @@
         <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -2432,7 +2435,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,7 +2538,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -2725,7 +2728,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -2821,7 +2824,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2918,7 +2921,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -3238,7 +3241,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3341,7 +3344,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -3373,7 +3376,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -3405,7 +3408,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>38</v>
@@ -3437,7 +3440,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="85" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>38</v>
@@ -3469,7 +3472,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
@@ -3533,7 +3536,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -3565,7 +3568,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -3597,7 +3600,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -3658,7 +3661,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3759,7 +3762,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -3909,13 +3912,13 @@
         <v>38</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F9" s="73" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="17">
@@ -3939,13 +3942,13 @@
         <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F10" s="76" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
@@ -3976,8 +3979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4076,7 +4079,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -4172,7 +4175,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H7" s="82"/>
       <c r="I7" s="73" t="s">
@@ -4316,7 +4319,7 @@
       <c r="E12" s="73"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H12" s="80"/>
       <c r="I12" s="22" t="s">
@@ -4346,7 +4349,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="18" t="s">
@@ -4376,7 +4379,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H14" s="81"/>
       <c r="I14" s="18">
@@ -4448,7 +4451,7 @@
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4460,7 +4463,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -4470,7 +4473,7 @@
       </c>
       <c r="H17" s="86"/>
       <c r="I17" s="87" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J17" s="86"/>
     </row>
@@ -4486,7 +4489,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -4516,7 +4519,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -4525,7 +4528,7 @@
         <v>38</v>
       </c>
       <c r="H19" s="79" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I19" s="18">
         <v>3703994</v>
@@ -4578,7 +4581,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -4608,7 +4611,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>38</v>
@@ -4667,8 +4670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4925,7 +4928,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>38</v>
@@ -4957,7 +4960,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -4989,7 +4992,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5021,7 +5024,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5053,7 +5056,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>38</v>
@@ -5091,7 +5094,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>38</v>
@@ -5329,7 +5332,7 @@
     </row>
     <row r="22" spans="1:10" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>69</v>
@@ -5350,7 +5353,7 @@
         <v>38</v>
       </c>
       <c r="H22" s="84" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I22" s="18">
         <v>1</v>
@@ -5379,7 +5382,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>38</v>
@@ -5411,7 +5414,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>38</v>
@@ -5443,7 +5446,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>38</v>
@@ -5475,7 +5478,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>38</v>
@@ -5603,7 +5606,7 @@
         <v>38</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>38</v>
@@ -5617,7 +5620,7 @@
     </row>
     <row r="31" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>69</v>
@@ -5635,7 +5638,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>38</v>
@@ -5667,7 +5670,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H32" s="38" t="s">
         <v>38</v>
@@ -5788,8 +5791,8 @@
       <c r="D36" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>240</v>
+      <c r="E36" s="93">
+        <v>44650</v>
       </c>
       <c r="F36" s="34" t="s">
         <v>38</v>
@@ -5809,10 +5812,10 @@
     </row>
     <row r="37" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="88" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C37" s="54" t="s">
         <v>18</v>
@@ -5993,7 +5996,7 @@
     </row>
     <row r="43" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -6011,10 +6014,10 @@
         <v>38</v>
       </c>
       <c r="I43" s="67" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J43" s="63" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>

--- a/Oklahoma/WaterAllocation/OK_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Oklahoma/WaterAllocation/OK_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oklahoma\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9491E961-A9A6-4B55-9DF1-44F461B562B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762F802B-AF0A-4DDF-9D18-0D016E514616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="302">
   <si>
     <t>Name</t>
   </si>
@@ -488,9 +488,6 @@
     <t>Water Administration for the State of Colorado</t>
   </si>
   <si>
-    <t>PrimaryUseCategory</t>
-  </si>
-  <si>
     <t>BeneficialUseCategory</t>
   </si>
   <si>
@@ -939,6 +936,15 @@
   </si>
   <si>
     <t>OKwr_S + counter</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>OKwr_WR + counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1704,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1974,6 +1980,9 @@
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2348,54 +2357,54 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -2477,10 +2486,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2521,7 +2530,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2538,7 +2547,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -2553,7 +2562,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2585,7 +2594,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2602,7 +2611,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>38</v>
@@ -2617,7 +2626,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2634,7 +2643,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>38</v>
@@ -2649,7 +2658,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2666,7 +2675,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
@@ -2678,10 +2687,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="96" x14ac:dyDescent="0.3">
@@ -2698,7 +2707,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -2711,7 +2720,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2728,7 +2737,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -2743,7 +2752,7 @@
         <v>143</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -2760,7 +2769,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -2775,7 +2784,7 @@
         <v>107</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2792,7 +2801,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -2807,7 +2816,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2866,10 +2875,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2904,7 +2913,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2921,7 +2930,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -2936,7 +2945,7 @@
         <v>140</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2968,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3000,7 +3009,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3032,7 +3041,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3064,7 +3073,7 @@
         <v>113</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3096,7 +3105,7 @@
         <v>114</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3128,7 +3137,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3160,7 +3169,7 @@
         <v>112</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3192,7 +3201,7 @@
         <v>144</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3224,7 +3233,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3283,10 +3292,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3327,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3344,7 +3353,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -3359,7 +3368,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3376,7 +3385,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -3391,7 +3400,7 @@
         <v>130</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3408,7 +3417,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>38</v>
@@ -3423,7 +3432,7 @@
         <v>129</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -3440,7 +3449,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="85" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>38</v>
@@ -3455,7 +3464,7 @@
         <v>127</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3472,7 +3481,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
@@ -3487,7 +3496,7 @@
         <v>147</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3519,7 +3528,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -3536,7 +3545,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -3551,7 +3560,7 @@
         <v>148</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3568,7 +3577,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -3583,7 +3592,7 @@
         <v>127</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3600,7 +3609,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -3615,7 +3624,7 @@
         <v>131</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3703,10 +3712,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3745,7 +3754,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3762,7 +3771,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -3775,7 +3784,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3792,7 +3801,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F5" s="73" t="s">
         <v>38</v>
@@ -3805,7 +3814,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3822,7 +3831,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6" s="73" t="s">
         <v>38</v>
@@ -3835,7 +3844,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3865,7 +3874,7 @@
         <v>118</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3882,7 +3891,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>38</v>
@@ -3892,10 +3901,10 @@
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3912,20 +3921,20 @@
         <v>38</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F9" s="73" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3942,20 +3951,20 @@
         <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F10" s="76" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4022,10 +4031,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4064,7 +4073,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4079,7 +4088,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -4092,7 +4101,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4109,7 +4118,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -4122,7 +4131,7 @@
         <v>117</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4139,7 +4148,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>38</v>
@@ -4152,7 +4161,7 @@
         <v>124</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4175,14 +4184,14 @@
         <v>38</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H7" s="82"/>
       <c r="I7" s="73" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4212,7 +4221,7 @@
         <v>125</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4229,7 +4238,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -4240,7 +4249,7 @@
       <c r="H9" s="80"/>
       <c r="I9" s="18"/>
       <c r="J9" s="63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4257,7 +4266,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -4270,7 +4279,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4287,7 +4296,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -4300,7 +4309,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4319,14 +4328,14 @@
       <c r="E12" s="73"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H12" s="80"/>
       <c r="I12" s="22" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4349,14 +4358,14 @@
         <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="18" t="s">
         <v>122</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4379,14 +4388,14 @@
         <v>38</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H14" s="81"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4403,7 +4412,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -4416,7 +4425,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4433,7 +4442,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -4446,12 +4455,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4463,7 +4472,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -4473,7 +4482,7 @@
       </c>
       <c r="H17" s="86"/>
       <c r="I17" s="87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J17" s="86"/>
     </row>
@@ -4489,7 +4498,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -4502,7 +4511,7 @@
         <v>120</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4519,7 +4528,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -4528,13 +4537,13 @@
         <v>38</v>
       </c>
       <c r="H19" s="79" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I19" s="18">
         <v>3703994</v>
       </c>
       <c r="J19" s="63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4551,7 +4560,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -4564,7 +4573,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4581,7 +4590,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -4594,7 +4603,7 @@
         <v>121</v>
       </c>
       <c r="J21" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4611,7 +4620,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>38</v>
@@ -4624,7 +4633,7 @@
         <v>141</v>
       </c>
       <c r="J22" s="63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4641,7 +4650,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>38</v>
@@ -4654,7 +4663,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4668,10 +4677,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4713,10 +4722,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4751,7 +4760,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4783,7 +4792,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4815,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4847,7 +4856,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4879,7 +4888,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4911,76 +4920,66 @@
         <v>371091</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="63"/>
+    </row>
+    <row r="10" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B10" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="63" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="C10" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="49" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="66" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>67</v>
@@ -4991,8 +4990,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>257</v>
+      <c r="E11" s="61" t="s">
+        <v>296</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5007,12 +5006,12 @@
         <v>38</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>67</v>
@@ -5023,8 +5022,8 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="58" t="s">
-        <v>296</v>
+      <c r="E12" s="18" t="s">
+        <v>256</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5039,108 +5038,108 @@
         <v>38</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B14" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="63" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="53" t="s">
+      <c r="C14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D15" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="65">
+      <c r="E15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="65">
         <v>5363</v>
       </c>
-      <c r="J14" s="63" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="64" t="s">
-        <v>160</v>
+      <c r="J15" s="63" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>68</v>
@@ -5152,7 +5151,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>38</v>
@@ -5167,79 +5166,79 @@
         <v>133</v>
       </c>
       <c r="J16" s="64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B18" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D18" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E18" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="63" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>240</v>
-      </c>
       <c r="F18" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="21" t="s">
         <v>38</v>
       </c>
       <c r="H18" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="64" t="s">
-        <v>160</v>
+      <c r="I18" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
@@ -5248,7 +5247,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>38</v>
@@ -5260,18 +5259,18 @@
         <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="63" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>18</v>
@@ -5280,7 +5279,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>38</v>
@@ -5291,28 +5290,28 @@
       <c r="H20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>38</v>
@@ -5323,89 +5322,89 @@
       <c r="H21" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="18">
-        <v>5200</v>
-      </c>
-      <c r="J21" s="63" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I21" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="84" t="s">
-        <v>268</v>
+      <c r="G22" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>38</v>
       </c>
       <c r="I22" s="18">
-        <v>1</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="63" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="F23" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>136</v>
+      <c r="G23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1</v>
       </c>
       <c r="J23" s="63" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>38</v>
@@ -5413,150 +5412,150 @@
       <c r="F24" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>260</v>
+      <c r="G24" s="49" t="s">
+        <v>265</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J25" s="63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="J26" s="63" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="37" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>18</v>
+      <c r="C27" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="49" t="s">
-        <v>38</v>
+      <c r="G27" s="21" t="s">
+        <v>264</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="67" t="s">
-        <v>38</v>
+      <c r="I27" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="J27" s="63" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="37" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F28" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="49" t="s">
         <v>38</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="68">
-        <v>44196</v>
+      <c r="I28" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="J28" s="63" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>106</v>
@@ -5580,155 +5579,155 @@
         <v>38</v>
       </c>
       <c r="I29" s="68">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J29" s="63" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J30" s="64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="68">
+        <v>43831</v>
+      </c>
+      <c r="J30" s="63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>283</v>
+        <v>87</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="62" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="18">
         <v>0</v>
       </c>
-      <c r="J31" s="63" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="67" t="s">
-        <v>38</v>
-      </c>
       <c r="J32" s="63" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>18</v>
+      <c r="C33" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="49" t="s">
-        <v>38</v>
+      <c r="E33" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I33" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F34" s="34" t="s">
         <v>38</v>
@@ -5742,13 +5741,13 @@
       <c r="I34" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="63" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="52" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J34" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>15</v>
@@ -5760,7 +5759,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F35" s="34" t="s">
         <v>38</v>
@@ -5775,114 +5774,114 @@
         <v>133</v>
       </c>
       <c r="J35" s="63" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="52" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J36" s="63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="93">
+      <c r="C37" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="93">
         <v>44650</v>
       </c>
-      <c r="F36" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="69">
+      <c r="F37" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="69">
         <v>43874</v>
       </c>
-      <c r="J36" s="63" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="88" t="s">
+      <c r="J37" s="63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="B37" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="C37" s="54" t="s">
+      <c r="C38" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="34">
+      <c r="D38" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="34">
         <v>0</v>
       </c>
-      <c r="F37" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="89"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="91"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>240</v>
-      </c>
       <c r="F38" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G38" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="70">
-        <v>33187</v>
-      </c>
-      <c r="J38" s="64" t="s">
-        <v>160</v>
-      </c>
+      <c r="H38" s="89"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="91"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F39" s="34" t="s">
         <v>38</v>
@@ -5893,16 +5892,16 @@
       <c r="H39" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="63" t="s">
-        <v>207</v>
+      <c r="I39" s="70">
+        <v>33187</v>
+      </c>
+      <c r="J39" s="64" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>69</v>
@@ -5914,7 +5913,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F40" s="34" t="s">
         <v>38</v>
@@ -5922,29 +5921,31 @@
       <c r="G40" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="37"/>
+      <c r="H40" s="38" t="s">
+        <v>38</v>
+      </c>
       <c r="I40" s="67" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F41" s="34" t="s">
         <v>38</v>
@@ -5952,31 +5953,29 @@
       <c r="G41" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>133</v>
+      <c r="H41" s="37"/>
+      <c r="I41" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="J41" s="63" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F42" s="34" t="s">
         <v>38</v>
@@ -5987,16 +5986,16 @@
       <c r="H42" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -6004,159 +6003,191 @@
       <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="92"/>
+      <c r="D43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>38</v>
+      </c>
       <c r="H43" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="J43" s="63" t="s">
-        <v>288</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J43" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>89</v>
+        <v>285</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="D44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="92"/>
       <c r="H44" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I44" s="67" t="s">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="J44" s="63" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="18" t="s">
+      <c r="E46" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J45" s="64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="53" t="s">
+      <c r="J46" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B47" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C47" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D47" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="65" t="s">
+      <c r="E47" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="J46" s="63" t="s">
+      <c r="J47" s="63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J48" s="63" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J47" s="63" t="s">
-        <v>211</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J47">
-    <sortCondition ref="A14:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:J48">
+    <sortCondition ref="A15:A48"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Oklahoma/WaterAllocation/OK_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Oklahoma/WaterAllocation/OK_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oklahoma\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762F802B-AF0A-4DDF-9D18-0D016E514616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F6B80C-1DE4-4C41-9C33-C398C2C24FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="4" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="301">
   <si>
     <t>Name</t>
   </si>
@@ -846,9 +846,6 @@
   </si>
   <si>
     <t>HYDRO_UNIT</t>
-  </si>
-  <si>
-    <t>STREAM_SYSTEM</t>
   </si>
   <si>
     <t>PSWD Metadata: https://www.owrb.ok.gov/maps/data/layers/Water_Rights/Permitted_SW_Diversions.htm</t>
@@ -2360,7 +2357,7 @@
         <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2376,17 +2373,17 @@
         <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2394,17 +2391,17 @@
         <v>238</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -2547,7 +2544,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -2930,7 +2927,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -3353,7 +3350,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -3385,7 +3382,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -3417,7 +3414,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>38</v>
@@ -3577,7 +3574,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -3669,8 +3666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5F405-0A84-4CAE-BAB0-9DF044EAE9B9}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3771,7 +3768,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -3920,14 +3917,14 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="73" t="s">
-        <v>272</v>
+      <c r="E9" s="24" t="s">
+        <v>288</v>
       </c>
       <c r="F9" s="73" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="17">
@@ -3951,7 +3948,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F10" s="76" t="s">
         <v>38</v>
@@ -3989,7 +3986,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4088,7 +4085,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -4460,7 +4457,7 @@
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4472,7 +4469,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -4482,7 +4479,7 @@
       </c>
       <c r="H17" s="86"/>
       <c r="I17" s="87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J17" s="86"/>
     </row>
@@ -4498,7 +4495,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -4528,7 +4525,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -4537,7 +4534,7 @@
         <v>38</v>
       </c>
       <c r="H19" s="79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I19" s="18">
         <v>3703994</v>
@@ -4590,7 +4587,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -4679,7 +4676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
@@ -4925,7 +4922,7 @@
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>34</v>
@@ -4937,7 +4934,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="49"/>
@@ -4959,7 +4956,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>38</v>
@@ -4991,7 +4988,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5055,7 +5052,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>38</v>
@@ -5363,7 +5360,7 @@
     </row>
     <row r="23" spans="1:10" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>69</v>
@@ -5651,7 +5648,7 @@
     </row>
     <row r="32" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>69</v>
@@ -5843,10 +5840,10 @@
     </row>
     <row r="38" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="B38" s="53" t="s">
         <v>283</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>284</v>
       </c>
       <c r="C38" s="54" t="s">
         <v>18</v>
@@ -6027,7 +6024,7 @@
     </row>
     <row r="44" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6045,10 +6042,10 @@
         <v>38</v>
       </c>
       <c r="I44" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="J44" s="63" t="s">
         <v>286</v>
-      </c>
-      <c r="J44" s="63" t="s">
-        <v>287</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6123,7 +6120,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B47" s="53" t="s">
         <v>105</v>

--- a/Oklahoma/WaterAllocation/OK_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Oklahoma/WaterAllocation/OK_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oklahoma\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F6B80C-1DE4-4C41-9C33-C398C2C24FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5420A09F-01C6-4ECC-9261-591A45DFAF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="4" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -776,18 +776,6 @@
     <t>Organizations:</t>
   </si>
   <si>
-    <t>The OWRB appropriates stream and groundwater supplies to various water users in the state. Permits are issued for the use of both surface and groundwaters in Oklahoma (domestic uses are exempt) and all waters must be used beneficially without waste.</t>
-  </si>
-  <si>
-    <t>https://owrb.maps.arcgis.com/apps/webappviewer/index.html?id=db6e61cfdbc74a4d8b919b2eceef8d43</t>
-  </si>
-  <si>
-    <t>Water Allocation</t>
-  </si>
-  <si>
-    <t>Oklahoma Water Rights</t>
-  </si>
-  <si>
     <t>Oklahoma Water Resources Board</t>
   </si>
   <si>
@@ -942,6 +930,18 @@
   </si>
   <si>
     <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>The map layers displayed in this map service or viewer were produced from various sources at varying degrees of accuracy and precision. Therefore these maps should only be used for general reference information. Metadata documents are provided for each geographic layer. These documents describe the layer’s purpose and limitations. The data represent the results of data collection and/or processing for the specific Oklahoma Water Resources Board (OWRB) activity or purpose described above. As such, the data are valid only for their use, content, time, and accuracy specifications determined or intended by, or acceptable to, the OWRB. These data are not guaranteed to be useable, timely, accurate, or complete. The user is responsible for any use of these data other than their use by the OWRB, and for the results of any application of the data for other than the purpose intended by the OWRB. Although these data have been processed successfully on a computer system at the OWRB, NEITHER THE STATE OF OKLAHOMA NOR THE OWRB NOR ANY OTHER AGENCY THEREOF, NOR ANY OF THEIR EMPLOYEES, CONTRACTORS, OR SUBCONTRACTORS, MAKE ANY WARRANTY, EXPRESS OR IMPLIED, NOR ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR OR AS TO THE ACCURACY, COMPLETENESS, USEFULNESS OR MERCHANTABILITY OF ANY DATUM, SOFTWARE, INFORMATION, APPARATUS, PRODUCT, OR PROCESS DISCLOSED, NOR REPRESENT THAT ITS USE WOULD NOT INFRINGE ON PRIVATELY OWNED RIGHTS. NOR SHALL THE ACT OF DISTRIBUTION CONSTITUTE ANY SUCH WARRANTY. THIS DISCLAIMER APPLIES BOTH TO INDIVIDUAL USE OF THE DATA AND AGGREGATE USE WITH OTHER DATA. Conclusions drawn from, or actions undertaken on the basis of, such data and information are the sole responsibility of the user. Users are cautioned to consider carefully the provisional nature of these data and information before using them for decisions that concern personal or public safety or the conduct of business that involves substantial monetary or operational consequences.</t>
+  </si>
+  <si>
+    <t>Oklahoma Water Rights Method</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
+  </si>
+  <si>
+    <t>https://www.owrb.ok.gov/wateruse/index.php</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1701,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1757,19 +1757,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1871,9 +1865,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1919,32 +1910,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1978,8 +1963,8 @@
     <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2345,7 +2330,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" customWidth="1"/>
     <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
@@ -2353,76 +2338,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="69" t="s">
         <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="69" t="s">
         <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="69" t="s">
         <v>238</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
@@ -2440,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2511,13 +2496,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2526,7 +2511,7 @@
       <c r="I3" s="17">
         <v>11</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2534,22 +2519,22 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="45" t="s">
+      <c r="C4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -2558,7 +2543,7 @@
       <c r="I4" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2578,10 +2563,10 @@
       <c r="E5" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -2590,7 +2575,7 @@
       <c r="I5" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2607,22 +2592,22 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="68">
         <v>0.5</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2639,22 +2624,22 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="60" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2671,26 +2656,26 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="96" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2703,20 +2688,20 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="E9" s="89" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2734,12 +2719,12 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -2748,11 +2733,11 @@
       <c r="I10" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="60" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2765,13 +2750,13 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="E11" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -2780,7 +2765,7 @@
       <c r="I11" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="60" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2797,13 +2782,13 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="E12" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -2812,7 +2797,7 @@
       <c r="I12" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="60" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2820,8 +2805,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{4E3B1F8C-BED1-4B9A-B4F5-D46E0909B447}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2900,16 +2888,16 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>16</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2917,22 +2905,22 @@
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="45" t="s">
+      <c r="C4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -2941,7 +2929,7 @@
       <c r="I4" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2961,10 +2949,10 @@
       <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -2973,7 +2961,7 @@
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2993,10 +2981,10 @@
       <c r="E6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -3005,7 +2993,7 @@
       <c r="I6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3025,10 +3013,10 @@
       <c r="E7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -3037,7 +3025,7 @@
       <c r="I7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="60" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3057,10 +3045,10 @@
       <c r="E8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -3069,7 +3057,7 @@
       <c r="I8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3089,10 +3077,10 @@
       <c r="E9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -3101,7 +3089,7 @@
       <c r="I9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3121,10 +3109,10 @@
       <c r="E10" s="17">
         <v>10</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -3133,7 +3121,7 @@
       <c r="I10" s="17">
         <v>10</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="60" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3153,10 +3141,10 @@
       <c r="E11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -3165,7 +3153,7 @@
       <c r="I11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="60" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3185,10 +3173,10 @@
       <c r="E12" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -3197,7 +3185,7 @@
       <c r="I12" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="60" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3217,10 +3205,10 @@
       <c r="E13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="9" t="s">
@@ -3229,7 +3217,7 @@
       <c r="I13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="60" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3317,13 +3305,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -3332,7 +3320,7 @@
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3340,22 +3328,22 @@
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="45" t="s">
+      <c r="C4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -3364,7 +3352,7 @@
       <c r="I4" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3381,13 +3369,13 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="E5" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -3396,7 +3384,7 @@
       <c r="I5" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3414,12 +3402,12 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -3428,7 +3416,7 @@
       <c r="I6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3445,13 +3433,13 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="E7" s="80" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -3460,7 +3448,7 @@
       <c r="I7" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="60" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3478,12 +3466,12 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -3492,7 +3480,7 @@
       <c r="I8" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3512,10 +3500,10 @@
       <c r="E9" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -3524,7 +3512,7 @@
       <c r="I9" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3542,12 +3530,12 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -3556,7 +3544,7 @@
       <c r="I10" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="60" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3573,13 +3561,13 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="E11" s="80" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -3588,7 +3576,7 @@
       <c r="I11" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="60" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3606,12 +3594,12 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -3620,7 +3608,7 @@
       <c r="I12" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="60" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3666,7 +3654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5F405-0A84-4CAE-BAB0-9DF044EAE9B9}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -3737,20 +3725,20 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3758,29 +3746,29 @@
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="C4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3797,20 +3785,20 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="63" t="s">
+      <c r="F5" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="60" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3827,20 +3815,20 @@
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="63" t="s">
+      <c r="F6" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="60" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3857,20 +3845,20 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="19"/>
+      <c r="F7" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="60" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3887,20 +3875,20 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="F8" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="F8" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3917,20 +3905,20 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="E9" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3947,20 +3935,20 @@
       <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="73" t="s">
-        <v>271</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="74" t="s">
-        <v>253</v>
-      </c>
-      <c r="H10" s="23"/>
+      <c r="E10" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="60" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4056,20 +4044,20 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="80"/>
+      <c r="E3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="75"/>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4077,27 +4065,27 @@
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="80"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="75"/>
       <c r="I4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4114,20 +4102,20 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="80"/>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="75"/>
       <c r="I5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4144,50 +4132,50 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="80"/>
+      <c r="F6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="75"/>
       <c r="I6" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="83" t="s">
+      <c r="D7" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="77"/>
+      <c r="I7" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="78" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4207,17 +4195,17 @@
       <c r="E8" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="79"/>
+      <c r="F8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="74"/>
       <c r="I8" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4234,18 +4222,18 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="80"/>
+      <c r="F9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="75"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4262,20 +4250,20 @@
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="63" t="s">
+      <c r="F10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="75"/>
+      <c r="I10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="60" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4292,20 +4280,20 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="64" t="s">
+      <c r="F11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="75"/>
+      <c r="I11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4322,16 +4310,16 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="64" t="s">
+      <c r="E12" s="70"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="75"/>
+      <c r="I12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4348,20 +4336,20 @@
       <c r="D13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="H13" s="81"/>
+      <c r="E13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="76"/>
       <c r="I13" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="60" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4378,20 +4366,20 @@
       <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="H14" s="81"/>
+      <c r="E14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14" s="76"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="60" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4408,20 +4396,20 @@
       <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="63" t="s">
+      <c r="F15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="75"/>
+      <c r="I15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="60" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4438,26 +4426,26 @@
       <c r="D16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="63" t="s">
+      <c r="F16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="75"/>
+      <c r="I16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="60" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4468,20 +4456,20 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="65" t="s">
-        <v>289</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="86"/>
-      <c r="I17" s="87" t="s">
-        <v>279</v>
-      </c>
-      <c r="J17" s="86"/>
+      <c r="E17" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -4494,20 +4482,20 @@
       <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="80"/>
+      <c r="E18" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="75"/>
       <c r="I18" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="60" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4524,22 +4512,22 @@
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="79" t="s">
-        <v>274</v>
+      <c r="E19" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>270</v>
       </c>
       <c r="I19" s="18">
         <v>3703994</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="60" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4556,20 +4544,20 @@
       <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="80"/>
+      <c r="F20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="75"/>
       <c r="I20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4586,20 +4574,20 @@
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="80"/>
+      <c r="E21" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="75"/>
       <c r="I21" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="60" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4616,20 +4604,20 @@
       <c r="D22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="80"/>
+      <c r="E22" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="75"/>
       <c r="I22" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="60" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4646,20 +4634,20 @@
       <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="80"/>
-      <c r="I23" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="64" t="s">
+      <c r="F23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="75"/>
+      <c r="I23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4676,8 +4664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4734,243 +4722,243 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="65">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="62">
         <v>50004</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="56" t="s">
+      <c r="C4" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="65">
+      <c r="E4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="62">
         <v>43</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="56" t="s">
+      <c r="C5" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="65">
+      <c r="E5" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="62">
         <v>1</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="56" t="s">
+      <c r="C6" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="65">
+      <c r="E6" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="62">
         <v>39035</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="56" t="s">
+      <c r="C7" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="65">
+      <c r="E7" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="62">
         <v>63</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="56" t="s">
+      <c r="C8" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="65">
+      <c r="E8" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="62">
         <v>371091</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="B9" s="53" t="s">
+    <row r="9" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>299</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="63"/>
-    </row>
-    <row r="10" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="C9" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="60"/>
+    </row>
+    <row r="10" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>293</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="63" t="s">
+      <c r="C10" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="60" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4987,22 +4975,22 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="63" t="s">
+      <c r="E11" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="60" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5020,21 +5008,21 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="60" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5051,22 +5039,22 @@
       <c r="D13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="63" t="s">
+      <c r="E13" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="60" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5074,67 +5062,67 @@
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="63" t="s">
+      <c r="C14" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="60" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
+    <row r="15" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="65">
+      <c r="E15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="62">
         <v>5363</v>
       </c>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="60" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>94</v>
       </c>
@@ -5147,26 +5135,26 @@
       <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="38" t="s">
+      <c r="F16" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="64" t="s">
+      <c r="J16" s="61" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>93</v>
       </c>
@@ -5179,54 +5167,54 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="38" t="s">
+      <c r="F17" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="64" t="s">
+      <c r="J17" s="61" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+    <row r="18" spans="1:10" s="35" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="65" t="s">
+      <c r="E18" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="60" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5243,22 +5231,22 @@
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="38" t="s">
+      <c r="F19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="64" t="s">
+      <c r="J19" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5275,26 +5263,26 @@
       <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="38" t="s">
+      <c r="F20" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="60" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
@@ -5307,22 +5295,22 @@
       <c r="D21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="64" t="s">
+      <c r="F21" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5339,28 +5327,28 @@
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="38" t="s">
+      <c r="F22" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="18">
         <v>5200</v>
       </c>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>69</v>
@@ -5371,22 +5359,22 @@
       <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F23" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="84" t="s">
-        <v>267</v>
+      <c r="F23" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="79" t="s">
+        <v>263</v>
       </c>
       <c r="I23" s="18">
         <v>1</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="60" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5403,22 +5391,22 @@
       <c r="D24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="H24" s="38" t="s">
+      <c r="E24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="H24" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="60" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5435,22 +5423,22 @@
       <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="H25" s="38" t="s">
+      <c r="E25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="H25" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="63" t="s">
+      <c r="J25" s="60" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5467,22 +5455,22 @@
       <c r="D26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="H26" s="38" t="s">
+      <c r="E26" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="63" t="s">
+      <c r="J26" s="60" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5493,32 +5481,32 @@
       <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="H27" s="38" t="s">
+      <c r="E27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="H27" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="60" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="37" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="35" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>153</v>
       </c>
@@ -5531,22 +5519,22 @@
       <c r="D28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F28" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="63" t="s">
+      <c r="F28" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="60" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5563,22 +5551,22 @@
       <c r="D29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="F29" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="68">
+      <c r="F29" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="65">
         <v>44196</v>
       </c>
-      <c r="J29" s="63" t="s">
+      <c r="J29" s="60" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5595,22 +5583,22 @@
       <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="F30" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="68">
+      <c r="F30" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="65">
         <v>43831</v>
       </c>
-      <c r="J30" s="63" t="s">
+      <c r="J30" s="60" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5627,28 +5615,28 @@
       <c r="D31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="H31" s="38" t="s">
+      <c r="E31" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="64" t="s">
+      <c r="J31" s="61" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>69</v>
@@ -5659,22 +5647,22 @@
       <c r="D32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="H32" s="38" t="s">
+      <c r="E32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="H32" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I32" s="18">
         <v>0</v>
       </c>
-      <c r="J32" s="63" t="s">
+      <c r="J32" s="60" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5685,28 +5673,28 @@
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="63" t="s">
+      <c r="E33" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="60" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5723,22 +5711,22 @@
       <c r="D34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="38" t="s">
+      <c r="F34" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="64" t="s">
+      <c r="J34" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5755,26 +5743,26 @@
       <c r="D35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F35" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="38" t="s">
+      <c r="F35" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="63" t="s">
+      <c r="J35" s="60" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="52" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="50" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>100</v>
       </c>
@@ -5787,82 +5775,82 @@
       <c r="D36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F36" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="38" t="s">
+      <c r="F36" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J36" s="63" t="s">
+      <c r="J36" s="60" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="93">
+      <c r="C37" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="88">
         <v>44650</v>
       </c>
-      <c r="F37" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="69">
+      <c r="F37" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="66">
         <v>43874</v>
       </c>
-      <c r="J37" s="63" t="s">
+      <c r="J37" s="60" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="88" t="s">
-        <v>282</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>283</v>
-      </c>
-      <c r="C38" s="54" t="s">
+    <row r="38" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="34">
+      <c r="D38" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="32">
         <v>0</v>
       </c>
-      <c r="F38" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="89"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="91"/>
+      <c r="F38" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="84"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="86"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -5877,22 +5865,22 @@
       <c r="D39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F39" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="70">
+      <c r="F39" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="67">
         <v>33187</v>
       </c>
-      <c r="J39" s="64" t="s">
+      <c r="J39" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5909,22 +5897,22 @@
       <c r="D40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F40" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="63" t="s">
+      <c r="F40" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="60" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5941,20 +5929,20 @@
       <c r="D41" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F41" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="37"/>
-      <c r="I41" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="63" t="s">
+      <c r="F41" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="35"/>
+      <c r="I41" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="60" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5971,22 +5959,22 @@
       <c r="D42" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F42" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="38" t="s">
+      <c r="F42" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="63" t="s">
+      <c r="J42" s="60" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6003,28 +5991,28 @@
       <c r="D43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F43" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="64" t="s">
+      <c r="F43" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="61" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6037,15 +6025,15 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="J44" s="63" t="s">
-        <v>286</v>
+      <c r="G44" s="87"/>
+      <c r="H44" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="J44" s="60" t="s">
+        <v>282</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6067,26 +6055,26 @@
       <c r="D45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F45" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="63" t="s">
+      <c r="F45" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="60" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>102</v>
       </c>
@@ -6099,54 +6087,54 @@
       <c r="D46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F46" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="38" t="s">
+      <c r="F46" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="64" t="s">
+      <c r="J46" s="61" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B47" s="53" t="s">
+      <c r="A47" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="B47" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="56" t="s">
+      <c r="D47" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="F47" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="65" t="s">
+      <c r="F47" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="63" t="s">
+      <c r="J47" s="60" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6163,22 +6151,22 @@
       <c r="D48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F48" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" s="38" t="s">
+      <c r="F48" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="63" t="s">
+      <c r="J48" s="60" t="s">
         <v>210</v>
       </c>
     </row>

--- a/Oklahoma/WaterAllocation/OK_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Oklahoma/WaterAllocation/OK_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oklahoma\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5420A09F-01C6-4ECC-9261-591A45DFAF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A174DD-1551-4176-A8F2-074893B0133F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -941,7 +941,7 @@
     <t>Legal Processes</t>
   </si>
   <si>
-    <t>https://www.owrb.ok.gov/wateruse/index.php</t>
+    <t>https://www.owrb.ok.gov/supply/ocwp/pdf_ocwp/WaterPlanUpdate/joint_committee/WATER%20LAW_MANAGEMENT%20IN%20OKLAHOMA.pdf</t>
   </si>
 </sst>
 </file>
@@ -2426,7 +2426,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2737,7 +2737,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
